--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="79">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
   </si>
 </sst>
 </file>
@@ -1935,6 +1950,57 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="81">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1845,12 +1851,12 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1862,15 +1868,15 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -1879,12 +1885,12 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -1896,15 +1902,15 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1918,7 +1924,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1930,12 +1936,12 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1952,7 +1958,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -1964,12 +1970,12 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -1981,24 +1987,41 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="87">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score&lt;10&gt;</t>
   </si>
 </sst>
 </file>
@@ -1958,13 +1976,13 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -1975,7 +1993,7 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -1987,43 +2005,29 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="92">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -276,6 +276,21 @@
   </si>
   <si>
     <t xml:space="preserve">Score&lt;10&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1534,9 @@
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -2022,10 +2039,26 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="22"/>
     <row r="23"/>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="99">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -291,6 +291,27 @@
   </si>
   <si>
     <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol-</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1623,6 +1644,25 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1891,10 +1931,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
@@ -1903,12 +1943,12 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -1920,15 +1960,15 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -1942,7 +1982,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -1954,29 +1994,29 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1988,32 +2028,32 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -2022,41 +2062,41 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="104">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -312,6 +312,21 @@
   </si>
   <si>
     <t xml:space="preserve">Vol-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME OVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your score is &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
   </si>
 </sst>
 </file>
@@ -2099,8 +2114,57 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="107">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank You</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1865,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -2163,6 +2172,23 @@
       </c>
       <c r="F24" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="112">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -336,6 +336,21 @@
   </si>
   <si>
     <t xml:space="preserve">Thank You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x20-0x7E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
 </sst>
 </file>
@@ -1704,6 +1719,27 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>8</v>
       </c>
@@ -2077,7 +2113,7 @@
         <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -2086,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -2189,6 +2225,23 @@
       </c>
       <c r="F25" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="113">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No music</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="114">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t xml:space="preserve">No music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage &lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2094,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="117">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stage &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Box project V1.0</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1761,6 +1770,25 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2250,6 +2278,23 @@
         <v>112</v>
       </c>
     </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="125">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -366,6 +366,54 @@
   </si>
   <si>
     <t xml:space="preserve">Media Box project V1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 กรธวัช วิชชุวาณิชย์
+61010092 กืตติศักดิ์ พรหมรักษา
+61010402 ทัณฑธร สุขสังวาลย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 กรธวัช วิชชุวาณิชย์
+61010092 กืตติศักดิ์ พรหมรักษา
+61010402 ทัณฑธร สุขสังวาลย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 กรธวัช วิชชุวาณิชย์
+61010092 กืตติศักดิ์ พรหมรักษา
+61010402 ทัณฑธร สุขสังวาลย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 กรธวัช วิชชุวาณิชย์
+61010092 กืตติศักดิ์ พรหมรักษา
+61010402 ทัณฑธร สุขสังวาลย์</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 Korntawat
+61010092 Kittisak
+61010402 Tantatorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Media Box
+Members: 
+61010023 Korntawat
+61010092 Kittisak
+61010402 Tantatorn</t>
   </si>
 </sst>
 </file>
@@ -1806,6 +1854,25 @@
       </c>
     </row>
     <row r="10" spans="2:16">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
@@ -2295,6 +2362,23 @@
         <v>116</v>
       </c>
     </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
